--- a/JMP graphs/Measured costs.xlsx
+++ b/JMP graphs/Measured costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\JMP graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138BEA9A-0198-4252-87B1-9BD24B846665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166DA00-FCF0-41B3-883F-8AC07B13D3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18072" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="CUT" sheetId="2" r:id="rId1"/>
     <sheet name="Measured costsINV CNTL" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="44">
   <si>
     <t>Cut and herbicide</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Herbicide 1x</t>
+  </si>
+  <si>
+    <t>BlockPlot</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EA9951-BF95-42BE-8122-B0AFD2036973}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
@@ -536,8 +539,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>14</v>
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT("BP",B2,"-",C2)</f>
+        <v>BP1-4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -559,8 +563,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>14</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT("BP",B3,"-",C3)</f>
+        <v>BP1-4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -582,8 +587,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>14</v>
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -605,8 +611,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>14</v>
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -628,8 +635,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14</v>
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -651,8 +659,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>26</v>
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -674,8 +683,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>26</v>
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -697,8 +707,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>26</v>
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -720,8 +731,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>26</v>
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-6</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -743,8 +755,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>26</v>
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-6</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -766,8 +779,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>36</v>
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-6</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -789,8 +803,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>36</v>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-6</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -812,8 +827,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>36</v>
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-6</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -835,8 +851,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>36</v>
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-6</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -858,8 +875,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>36</v>
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-6</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -881,8 +899,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>44</v>
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-4</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -904,8 +923,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>44</v>
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-4</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -927,8 +947,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>44</v>
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-4</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -950,8 +971,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>44</v>
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-4</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -973,8 +995,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>44</v>
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-4</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -996,8 +1019,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>15</v>
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-5</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1019,8 +1043,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>15</v>
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-5</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1042,8 +1067,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>15</v>
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-5</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1065,8 +1091,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>15</v>
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-5</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1088,8 +1115,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>15</v>
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-5</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1111,8 +1139,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>23</v>
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-3</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1134,8 +1163,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>23</v>
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-3</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1157,8 +1187,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>23</v>
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-3</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1180,8 +1211,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>23</v>
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-3</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1203,8 +1235,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>23</v>
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-3</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1226,8 +1259,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>34</v>
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-4</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1249,8 +1283,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>34</v>
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-4</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1272,8 +1307,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>34</v>
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-4</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1295,8 +1331,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-4</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1318,8 +1355,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-4</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1341,8 +1379,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>46</v>
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-6</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1364,8 +1403,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>46</v>
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-6</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1387,8 +1427,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>46</v>
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-6</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1410,8 +1451,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>46</v>
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-6</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -1433,8 +1475,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>46</v>
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-6</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1456,8 +1499,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>12</v>
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-2</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1479,8 +1523,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>12</v>
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-2</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1502,8 +1547,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>12</v>
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-2</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1525,8 +1571,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>12</v>
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-2</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1548,8 +1595,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>12</v>
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-2</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1571,8 +1619,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>25</v>
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-5</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1594,8 +1643,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>25</v>
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-5</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1617,8 +1667,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>25</v>
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-5</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1640,8 +1691,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>25</v>
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-5</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1663,8 +1715,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>25</v>
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>BP2-5</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1686,8 +1739,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>32</v>
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-2</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1709,8 +1763,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>32</v>
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-2</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1732,8 +1787,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>32</v>
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-2</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1755,8 +1811,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>32</v>
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-2</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1778,8 +1835,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>32</v>
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>BP3-2</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -1801,8 +1859,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>48</v>
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-8</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1824,8 +1883,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>48</v>
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-8</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -1847,8 +1907,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>48</v>
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-8</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1870,8 +1931,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>48</v>
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-8</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -1893,8 +1955,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>48</v>
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>BP4-8</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -1916,8 +1979,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>17</v>
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-7</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1939,8 +2003,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>17</v>
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-7</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1962,8 +2027,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>17</v>
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-7</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1985,8 +2051,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>17</v>
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-7</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2008,8 +2075,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>17</v>
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1-7</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -2031,8 +2099,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>27</v>
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A121" si="1">_xlfn.CONCAT("BP",B67,"-",C67)</f>
+        <v>BP2-7</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2054,8 +2123,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>27</v>
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-7</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -2077,8 +2147,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>27</v>
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-7</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2100,8 +2171,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>27</v>
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-7</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2123,8 +2195,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>27</v>
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-7</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -2146,8 +2219,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>38</v>
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-8</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2169,8 +2243,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>38</v>
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-8</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -2192,8 +2267,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>38</v>
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-8</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -2215,8 +2291,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>38</v>
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-8</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2238,8 +2315,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>38</v>
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-8</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2261,8 +2339,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>45</v>
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-5</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -2284,8 +2363,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>45</v>
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-5</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -2307,8 +2387,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>45</v>
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-5</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -2330,8 +2411,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>45</v>
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-5</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -2353,8 +2435,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>45</v>
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-5</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -2375,923 +2458,963 @@
         <v>3.3846240949999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-3</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G82" s="2">
+        <v>9.2662888890000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-3</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F82">
+      <c r="F83" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G83" s="2">
+        <v>27.103988220000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-3</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2.5704163329999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G85" s="2">
+        <v>5.7937611E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-3</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2.9157114439999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-8</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="2">
         <v>2018</v>
       </c>
-      <c r="G82">
-        <v>9.2662888890000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="G87" s="2">
+        <v>6.2645333330000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-8</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G88" s="2">
+        <v>32.781128330000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-8</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F83">
+      <c r="F89" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2.0197526670000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-8</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.15307088899999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-8</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G91" s="2">
+        <v>4.3655966670000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-7</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G92" s="2">
+        <v>4.4653444440000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-7</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="2">
         <v>2019</v>
       </c>
-      <c r="G83">
-        <v>27.103988220000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="G93" s="2">
+        <v>19.09470778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-7</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G94" s="2">
+        <v>7.3611995559999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-7</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E95" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F84">
+      <c r="F95" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-7</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G96" s="2">
+        <v>4.2410517780000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-2</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G97" s="2">
+        <v>14.822333329999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-2</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G98" s="2">
+        <v>56.032615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-2</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="2">
         <v>2020</v>
       </c>
-      <c r="G84">
-        <v>2.5704163329999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="G99" s="2">
+        <v>6.995675222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-2</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.22336044399999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-2</v>
+      </c>
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E101" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F85">
+      <c r="F101" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G101" s="2">
+        <v>17.644729330000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-1</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G102" s="2">
+        <v>8.0505340289999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-1</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G103" s="2">
+        <v>6.2073801919999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.135545111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-1</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="2">
         <v>2021</v>
       </c>
-      <c r="G85">
-        <v>5.7937611E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>13</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86">
+      <c r="G105" s="2">
+        <v>3.3469213999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>BP1-1</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="2">
         <v>2022</v>
       </c>
-      <c r="G86">
-        <v>2.9157114439999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>28</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87">
+      <c r="G106" s="2">
+        <v>6.1109333000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-2</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="2">
         <v>2018</v>
       </c>
-      <c r="G87">
-        <v>6.2645333330000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>28</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88">
+      <c r="G107" s="2">
+        <v>6.4598690650000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="2">
         <v>2019</v>
       </c>
-      <c r="G88">
-        <v>32.781128330000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>28</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89">
+      <c r="G108" s="2">
+        <v>3.470470073</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-2</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="2">
         <v>2020</v>
       </c>
-      <c r="G89">
-        <v>2.0197526670000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>28</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90">
+      <c r="G109" s="2">
+        <v>0.25132711099999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-2</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="2">
         <v>2021</v>
       </c>
-      <c r="G90">
-        <v>0.15307088899999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>28</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91">
+      <c r="G110" s="2">
+        <v>0.49490914899999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>BP2-2</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="2">
         <v>2022</v>
       </c>
-      <c r="G91">
-        <v>4.3655966670000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>37</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92">
+      <c r="G111" s="2">
+        <v>0.50319046700000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-3</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2">
         <v>2018</v>
       </c>
-      <c r="G92">
-        <v>4.4653444440000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>37</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93">
+      <c r="G112" s="2">
+        <v>5.6248617730000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-3</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="2">
         <v>2019</v>
       </c>
-      <c r="G93">
-        <v>19.09470778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>37</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94">
+      <c r="G113" s="2">
+        <v>6.3002897689999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-3</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="2">
         <v>2020</v>
       </c>
-      <c r="G94">
-        <v>7.3611995559999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>37</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95">
+      <c r="G114" s="2">
+        <v>1.5603535559999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-3</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="2">
         <v>2021</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>37</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96">
+      <c r="G115" s="2">
+        <v>0.112291039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>BP3-3</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="2">
         <v>2022</v>
       </c>
-      <c r="G96">
-        <v>4.2410517780000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>42</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97">
+      <c r="G116" s="2">
+        <v>7.221832333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-1</v>
+      </c>
+      <c r="B117" s="2">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="2">
         <v>2018</v>
       </c>
-      <c r="G97">
-        <v>14.822333329999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>42</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98">
+      <c r="G117" s="2">
+        <v>13.514671480000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-1</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="2">
         <v>2019</v>
       </c>
-      <c r="G98">
-        <v>56.032615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>42</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99">
+      <c r="G118" s="2">
+        <v>18.247023380000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="2">
         <v>2020</v>
       </c>
-      <c r="G99">
-        <v>6.995675222</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>42</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100">
+      <c r="G119" s="2">
+        <v>0.37037188900000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>4</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="2">
         <v>2021</v>
       </c>
-      <c r="G100">
-        <v>0.22336044399999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>42</v>
-      </c>
-      <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101">
+      <c r="G120" s="2">
+        <v>0.29437840300000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>BP4-1</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="2">
         <v>2022</v>
       </c>
-      <c r="G101">
-        <v>17.644729330000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102">
-        <v>2018</v>
-      </c>
-      <c r="G102">
-        <v>8.0505340289999996</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>11</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103">
-        <v>2019</v>
-      </c>
-      <c r="G103">
-        <v>6.2073801919999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>11</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104">
-        <v>2020</v>
-      </c>
-      <c r="G104">
-        <v>0.135545111</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>11</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105">
-        <v>2021</v>
-      </c>
-      <c r="G105">
-        <v>3.3469213999999997E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>11</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106">
-        <v>2022</v>
-      </c>
-      <c r="G106">
-        <v>6.1109333000000002E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>22</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E107" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107">
-        <v>2018</v>
-      </c>
-      <c r="G107">
-        <v>6.4598690650000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>22</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108">
-        <v>2019</v>
-      </c>
-      <c r="G108">
-        <v>3.470470073</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>22</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109">
-        <v>2020</v>
-      </c>
-      <c r="G109">
-        <v>0.25132711099999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>22</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110">
-        <v>2021</v>
-      </c>
-      <c r="G110">
-        <v>0.49490914899999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>22</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" t="s">
-        <v>17</v>
-      </c>
-      <c r="F111">
-        <v>2022</v>
-      </c>
-      <c r="G111">
-        <v>0.50319046700000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>33</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112">
-        <v>2018</v>
-      </c>
-      <c r="G112">
-        <v>5.6248617730000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>33</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-      <c r="D113" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113">
-        <v>2019</v>
-      </c>
-      <c r="G113">
-        <v>6.3002897689999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>33</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114">
-        <v>2020</v>
-      </c>
-      <c r="G114">
-        <v>1.5603535559999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>33</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115">
-        <v>2021</v>
-      </c>
-      <c r="G115">
-        <v>0.112291039</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>33</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116">
-        <v>2022</v>
-      </c>
-      <c r="G116">
-        <v>7.221832333</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>41</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117">
-        <v>2018</v>
-      </c>
-      <c r="G117">
-        <v>13.514671480000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>41</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>40</v>
-      </c>
-      <c r="E118" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118">
-        <v>2019</v>
-      </c>
-      <c r="G118">
-        <v>18.247023380000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>41</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119">
-        <v>2020</v>
-      </c>
-      <c r="G119">
-        <v>0.37037188900000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>41</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120">
-        <v>2021</v>
-      </c>
-      <c r="G120">
-        <v>0.29437840300000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>41</v>
-      </c>
-      <c r="B121">
-        <v>4</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121">
-        <v>2022</v>
-      </c>
-      <c r="G121">
+      <c r="G121" s="2">
         <v>4.4697960219999997</v>
       </c>
     </row>
